--- a/Tasa de Xenofobia/Ecuador/ecuador_queries.xlsx
+++ b/Tasa de Xenofobia/Ecuador/ecuador_queries.xlsx
@@ -141,7 +141,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sat Jul 01 05:00:00 UTC 2023</t>
+          <t>Fri Dec 01 05:00:00 UTC 2023</t>
         </is>
       </c>
     </row>
@@ -311,6 +311,116 @@
           <t>2023-06-26 05:00:00.0</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2023-07-03 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>2023-07-10 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2023-07-17 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>2023-07-24 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>2023-07-31 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>2023-08-07 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2023-08-14 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2023-08-21 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>2023-08-28 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2023-09-04 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>2023-09-11 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>2023-09-18 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2023-09-25 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2023-10-02 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>2023-10-09 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>2023-10-16 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>2023-10-23 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>2023-10-30 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>2023-11-06 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>2023-11-13 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>2023-11-20 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>2023-11-27 05:00:00.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -319,85 +429,151 @@
         </is>
       </c>
       <c r="B11">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C11">
-        <v>1334</v>
+        <v>1181</v>
       </c>
       <c r="D11">
-        <v>2673</v>
+        <v>2268</v>
       </c>
       <c r="E11">
-        <v>2073</v>
+        <v>1900</v>
       </c>
       <c r="F11">
-        <v>3076</v>
+        <v>2907</v>
       </c>
       <c r="G11">
-        <v>2279</v>
+        <v>1797</v>
       </c>
       <c r="H11">
-        <v>3422</v>
+        <v>2818</v>
       </c>
       <c r="I11">
-        <v>5529</v>
+        <v>3444</v>
       </c>
       <c r="J11">
-        <v>3918</v>
+        <v>2927</v>
       </c>
       <c r="K11">
-        <v>1795</v>
+        <v>1475</v>
       </c>
       <c r="L11">
-        <v>5493</v>
+        <v>3334</v>
       </c>
       <c r="M11">
-        <v>3790</v>
+        <v>3153</v>
       </c>
       <c r="N11">
-        <v>3174</v>
+        <v>3004</v>
       </c>
       <c r="O11">
-        <v>5068</v>
+        <v>4356</v>
       </c>
       <c r="P11">
-        <v>5531</v>
+        <v>4799</v>
       </c>
       <c r="Q11">
-        <v>3997</v>
+        <v>3604</v>
       </c>
       <c r="R11">
-        <v>4106</v>
+        <v>3684</v>
       </c>
       <c r="S11">
-        <v>4713</v>
+        <v>4457</v>
       </c>
       <c r="T11">
-        <v>4076</v>
+        <v>3232</v>
       </c>
       <c r="U11">
-        <v>2770</v>
+        <v>2344</v>
       </c>
       <c r="V11">
-        <v>3359</v>
+        <v>2736</v>
       </c>
       <c r="W11">
-        <v>1777</v>
+        <v>1447</v>
       </c>
       <c r="X11">
-        <v>4110</v>
+        <v>3590</v>
       </c>
       <c r="Y11">
-        <v>2228</v>
+        <v>1855</v>
       </c>
       <c r="Z11">
-        <v>2872</v>
+        <v>2621</v>
       </c>
       <c r="AA11">
-        <v>1977</v>
+        <v>1845</v>
       </c>
       <c r="AB11">
-        <v>1455</v>
+        <v>1752</v>
+      </c>
+      <c r="AC11">
+        <v>1425</v>
+      </c>
+      <c r="AD11">
+        <v>1953</v>
+      </c>
+      <c r="AE11">
+        <v>2682</v>
+      </c>
+      <c r="AF11">
+        <v>5208</v>
+      </c>
+      <c r="AG11">
+        <v>1656</v>
+      </c>
+      <c r="AH11">
+        <v>2643</v>
+      </c>
+      <c r="AI11">
+        <v>2115</v>
+      </c>
+      <c r="AJ11">
+        <v>1718</v>
+      </c>
+      <c r="AK11">
+        <v>1892</v>
+      </c>
+      <c r="AL11">
+        <v>12390</v>
+      </c>
+      <c r="AM11">
+        <v>3602</v>
+      </c>
+      <c r="AN11">
+        <v>2264</v>
+      </c>
+      <c r="AO11">
+        <v>3466</v>
+      </c>
+      <c r="AP11">
+        <v>3135</v>
+      </c>
+      <c r="AQ11">
+        <v>1979</v>
+      </c>
+      <c r="AR11">
+        <v>2921</v>
+      </c>
+      <c r="AS11">
+        <v>3448</v>
+      </c>
+      <c r="AT11">
+        <v>7701</v>
+      </c>
+      <c r="AU11">
+        <v>5279</v>
+      </c>
+      <c r="AV11">
+        <v>7021</v>
+      </c>
+      <c r="AW11">
+        <v>4130</v>
+      </c>
+      <c r="AX11">
+        <v>1254</v>
       </c>
     </row>
     <row r="12"/>

--- a/Tasa de Xenofobia/Ecuador/ecuador_queries.xlsx
+++ b/Tasa de Xenofobia/Ecuador/ecuador_queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10804"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Tasa de Xenofobia\Ecuador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/Tasa de Xenofobia/Ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62BA1BD-5D80-463C-A1E9-4C2F36E3C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00244215-8EC3-B948-84BF-DB56EFF9115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="1160" windowWidth="17280" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -269,6 +269,45 @@
   </si>
   <si>
     <t>2024-01-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-29 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-24 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -610,15 +649,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO11"/>
+  <dimension ref="A1:CB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+    <sheetView tabSelected="1" topLeftCell="BK4" workbookViewId="0">
+      <selection activeCell="BR15" sqref="BR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -642,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -650,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -658,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -666,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -674,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -682,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -884,8 +923,47 @@
       <c r="BO10" t="s">
         <v>70</v>
       </c>
+      <c r="BP10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1086,6 +1164,45 @@
       </c>
       <c r="BO11">
         <v>2376</v>
+      </c>
+      <c r="BP11">
+        <v>3027</v>
+      </c>
+      <c r="BQ11">
+        <v>2987</v>
+      </c>
+      <c r="BR11">
+        <v>4209</v>
+      </c>
+      <c r="BS11">
+        <v>2358</v>
+      </c>
+      <c r="BT11">
+        <v>1454</v>
+      </c>
+      <c r="BU11">
+        <v>1331</v>
+      </c>
+      <c r="BV11">
+        <v>992</v>
+      </c>
+      <c r="BW11">
+        <v>1419</v>
+      </c>
+      <c r="BX11">
+        <v>1273</v>
+      </c>
+      <c r="BY11">
+        <v>1867</v>
+      </c>
+      <c r="BZ11">
+        <v>2124</v>
+      </c>
+      <c r="CA11">
+        <v>4651</v>
+      </c>
+      <c r="CB11">
+        <v>4709</v>
       </c>
     </row>
   </sheetData>
